--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -279,6 +279,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,11 +345,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A6"/>
@@ -653,6 +657,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -664,7 +683,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +731,7 @@
       <c r="C2" s="3">
         <v>1234567890</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>29951</v>
       </c>
       <c r="E2" t="s">
@@ -874,9 +893,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D29" sqref="D29:D31"/>
     </sheetView>
   </sheetViews>
@@ -1028,59 +1047,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
